--- a/data/foods.xlsx
+++ b/data/foods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\работа\Крушинина графики для сайта\2021\04 апрель\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\работа\Крушинина графики для сайта\2021\05 май\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -94,12 +94,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1)Апрель 2021 г. в % к декабрю 2020 г.
+    <t xml:space="preserve">1)Май 2021 г. в % к декабрю 2020 г.
  Обращаем Ваше внимание, что в январе 1998 г. была проведена деноминация, в результате которой произошло уменьшение масштаба цен в 1000 раз.  </t>
   </si>
   <si>
     <r>
-      <t>103,85</t>
+      <t>104,85</t>
     </r>
     <r>
       <rPr>
@@ -718,7 +718,7 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,7 +1451,9 @@
       <c r="AE10" s="23">
         <v>100.16</v>
       </c>
-      <c r="AF10" s="23"/>
+      <c r="AF10" s="23">
+        <v>100.96</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
